--- a/Statistical Learning/Data Analyse/data_raket.xlsx
+++ b/Statistical Learning/Data Analyse/data_raket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fontys\data\werk\fontys 2007-\TN2021-2022\data analyse\cases\case 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fontys\data\werk\fontys 2007-\TN2022-2023\data analyse\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -535,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
